--- a/data/target_VS_outcome.xlsx
+++ b/data/target_VS_outcome.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9930480c6e9fa866/Desktop/ECG_CNN_PROJECT_ALD/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oussk\Downloads\ECG_CNN_PROJECT_ALD\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED17E7C7-82B6-41A3-8564-4C93ED89D99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8715595D-8BF3-4535-8F9E-D467691E46F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{B2C9B84D-24C8-434B-93DF-C917E358203F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B2C9B84D-24C8-434B-93DF-C917E358203F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,27 +38,35 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>sample_id</t>
+    <t>correct: 27/44 = 61,3%</t>
   </si>
   <si>
-    <t>label</t>
+    <t xml:space="preserve">sample_id </t>
   </si>
   <si>
-    <t>outcome</t>
+    <t>Target Label</t>
   </si>
   <si>
-    <t>score</t>
+    <t>Predicted outcome</t>
   </si>
   <si>
-    <t>correct: 27/44 = 61,3%</t>
+    <t>Prediction score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -80,7 +88,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -88,14 +96,205 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -113,6 +312,103 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>122040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571680</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>122400</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{768D10F8-0BA1-9535-9B1F-2A910656124F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="571320" y="122040"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{768D10F8-0BA1-9535-9B1F-2A910656124F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="565200" y="115920"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-08T17:42:14.087"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 24575</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,189 +728,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD963FB-E781-42A3-89FA-CBD78D749FB3}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="D1" s="15" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>100</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>101</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>102</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
         <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>103</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>104</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
         <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>105</v>
       </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>106</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
         <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>107</v>
       </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
         <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>108</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
         <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="4">
         <v>109</v>
       </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
         <v>250</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="4">
         <v>111</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
         <v>112</v>
       </c>
       <c r="G12" s="2"/>
@@ -622,16 +919,16 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="4">
         <v>112</v>
       </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13">
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
         <v>51</v>
       </c>
       <c r="G13" s="2"/>
@@ -639,16 +936,16 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="4">
         <v>113</v>
       </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14">
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
         <v>51</v>
       </c>
       <c r="G14" s="2"/>
@@ -656,437 +953,438 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="4">
         <v>114</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
+      <c r="B15" s="8">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
         <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="4">
         <v>115</v>
       </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16">
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>116</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
+      <c r="B17" s="8">
+        <v>0</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
         <v>244</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>117</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
+      <c r="B18" s="8">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
         <v>245</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>118</v>
       </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19">
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
         <v>244</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>119</v>
       </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20">
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>200</v>
       </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21">
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7">
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>201</v>
       </c>
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22">
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>202</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
+      <c r="B23" s="8">
+        <v>0</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7">
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>203</v>
       </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-      <c r="D24">
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
         <v>205</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
+      <c r="B25" s="8">
+        <v>0</v>
+      </c>
+      <c r="C25" s="9">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
         <v>207</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
+      <c r="B26" s="8">
+        <v>1</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>208</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
+      <c r="B27" s="8">
+        <v>1</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>209</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
+      <c r="B28" s="8">
+        <v>0</v>
+      </c>
+      <c r="C28" s="9">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7">
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>210</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
+      <c r="B29" s="8">
+        <v>0</v>
+      </c>
+      <c r="C29" s="9">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7">
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>212</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
+      <c r="B30" s="8">
+        <v>1</v>
+      </c>
+      <c r="C30" s="9">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>213</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
+      <c r="B31" s="8">
+        <v>0</v>
+      </c>
+      <c r="C31" s="9">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>214</v>
       </c>
-      <c r="B32" s="1">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32">
+      <c r="B32" s="5">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
         <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="4">
         <v>215</v>
       </c>
-      <c r="B33" s="1">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-      <c r="D33">
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
         <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="4">
         <v>217</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
+      <c r="B34" s="8">
+        <v>1</v>
+      </c>
+      <c r="C34" s="9">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="4">
         <v>219</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
+      <c r="B35" s="8">
+        <v>0</v>
+      </c>
+      <c r="C35" s="9">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7">
         <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="4">
         <v>220</v>
       </c>
-      <c r="B36" s="1">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0</v>
-      </c>
-      <c r="D36">
+      <c r="B36" s="5">
+        <v>0</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
         <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="4">
         <v>221</v>
       </c>
-      <c r="B37" s="1">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37">
+      <c r="B37" s="5">
+        <v>1</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7">
         <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="4">
         <v>222</v>
       </c>
-      <c r="B38" s="1">
-        <v>0</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0</v>
-      </c>
-      <c r="D38">
+      <c r="B38" s="5">
+        <v>0</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" s="7">
         <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="4">
         <v>223</v>
       </c>
-      <c r="B39" s="1">
-        <v>0</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0</v>
-      </c>
-      <c r="D39">
+      <c r="B39" s="5">
+        <v>0</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="7">
         <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="4">
         <v>228</v>
       </c>
-      <c r="B40" s="1">
-        <v>0</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0</v>
-      </c>
-      <c r="D40">
+      <c r="B40" s="5">
+        <v>0</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0</v>
+      </c>
+      <c r="D40" s="7">
         <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="4">
         <v>230</v>
       </c>
-      <c r="B41" s="1">
-        <v>0</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0</v>
-      </c>
-      <c r="D41">
+      <c r="B41" s="5">
+        <v>0</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0</v>
+      </c>
+      <c r="D41" s="7">
         <v>112</v>
       </c>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="4">
         <v>231</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
+      <c r="B42" s="8">
+        <v>1</v>
+      </c>
+      <c r="C42" s="9">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7">
         <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="4">
         <v>232</v>
       </c>
-      <c r="B43" s="1">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43">
+      <c r="B43" s="5">
+        <v>1</v>
+      </c>
+      <c r="C43" s="6">
+        <v>1</v>
+      </c>
+      <c r="D43" s="7">
         <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="4">
         <v>233</v>
       </c>
-      <c r="B44" s="1">
-        <v>1</v>
-      </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44">
+      <c r="B44" s="5">
+        <v>1</v>
+      </c>
+      <c r="C44" s="6">
+        <v>1</v>
+      </c>
+      <c r="D44" s="7">
         <v>246</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10">
         <v>234</v>
       </c>
-      <c r="B45" s="1">
-        <v>0</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0</v>
-      </c>
-      <c r="D45">
+      <c r="B45" s="11">
+        <v>0</v>
+      </c>
+      <c r="C45" s="12">
+        <v>0</v>
+      </c>
+      <c r="D45" s="13">
         <v>109</v>
       </c>
     </row>
@@ -1095,6 +1393,7 @@
     <mergeCell ref="G11:I14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>